--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Thbs2-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Thbs2-Itgb1.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.5622926666666667</v>
+        <v>1.281134</v>
       </c>
       <c r="H2">
-        <v>1.686878</v>
+        <v>3.843402</v>
       </c>
       <c r="I2">
-        <v>0.003273311980002875</v>
+        <v>0.007312702338676299</v>
       </c>
       <c r="J2">
-        <v>0.003273311980002875</v>
+        <v>0.007312702338676299</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>98.946724</v>
+        <v>168.1098273333333</v>
       </c>
       <c r="N2">
-        <v>296.840172</v>
+        <v>504.329482</v>
       </c>
       <c r="O2">
-        <v>0.2098009692989996</v>
+        <v>0.2984182258032519</v>
       </c>
       <c r="P2">
-        <v>0.2098009692989996</v>
+        <v>0.298418225803252</v>
       </c>
       <c r="Q2">
-        <v>55.63701729589067</v>
+        <v>215.3712155308627</v>
       </c>
       <c r="R2">
-        <v>500.733155663016</v>
+        <v>1938.340939777764</v>
       </c>
       <c r="S2">
-        <v>0.0006867440262226306</v>
+        <v>0.002182243657735073</v>
       </c>
       <c r="T2">
-        <v>0.0006867440262226307</v>
+        <v>0.002182243657735073</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.5622926666666667</v>
+        <v>1.281134</v>
       </c>
       <c r="H3">
-        <v>1.686878</v>
+        <v>3.843402</v>
       </c>
       <c r="I3">
-        <v>0.003273311980002875</v>
+        <v>0.007312702338676299</v>
       </c>
       <c r="J3">
-        <v>0.003273311980002875</v>
+        <v>0.007312702338676299</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>489.018707</v>
       </c>
       <c r="O3">
-        <v>0.345629090707923</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="P3">
-        <v>0.3456290907079231</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="Q3">
-        <v>91.65721093630511</v>
+        <v>208.8328307245793</v>
       </c>
       <c r="R3">
-        <v>824.914898426746</v>
+        <v>1879.495476521214</v>
       </c>
       <c r="S3">
-        <v>0.001131351843251745</v>
+        <v>0.002115993631053589</v>
       </c>
       <c r="T3">
-        <v>0.001131351843251745</v>
+        <v>0.002115993631053589</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.5622926666666667</v>
+        <v>1.281134</v>
       </c>
       <c r="H4">
-        <v>1.686878</v>
+        <v>3.843402</v>
       </c>
       <c r="I4">
-        <v>0.003273311980002875</v>
+        <v>0.007312702338676299</v>
       </c>
       <c r="J4">
-        <v>0.003273311980002875</v>
+        <v>0.007312702338676299</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>144.2727966666667</v>
+        <v>165.99353</v>
       </c>
       <c r="N4">
-        <v>432.81839</v>
+        <v>497.98059</v>
       </c>
       <c r="O4">
-        <v>0.3059077790604178</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="P4">
-        <v>0.3059077790604179</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="Q4">
-        <v>81.12353556515778</v>
+        <v>212.65995506302</v>
       </c>
       <c r="R4">
-        <v>730.11182008642</v>
+        <v>1913.93959556718</v>
       </c>
       <c r="S4">
-        <v>0.001001331597974538</v>
+        <v>0.002154771876300243</v>
       </c>
       <c r="T4">
-        <v>0.001001331597974538</v>
+        <v>0.002154771876300243</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.5622926666666667</v>
+        <v>1.281134</v>
       </c>
       <c r="H5">
-        <v>1.686878</v>
+        <v>3.843402</v>
       </c>
       <c r="I5">
-        <v>0.003273311980002875</v>
+        <v>0.007312702338676299</v>
       </c>
       <c r="J5">
-        <v>0.003273311980002875</v>
+        <v>0.007312702338676299</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>65.39610666666668</v>
+        <v>66.22673433333334</v>
       </c>
       <c r="N5">
-        <v>196.18832</v>
+        <v>198.680203</v>
       </c>
       <c r="O5">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="P5">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="Q5">
-        <v>36.77175120721779</v>
+        <v>84.84532106340068</v>
       </c>
       <c r="R5">
-        <v>330.9457608649601</v>
+        <v>763.6078895706061</v>
       </c>
       <c r="S5">
-        <v>0.0004538845125539607</v>
+        <v>0.0008596931735873946</v>
       </c>
       <c r="T5">
-        <v>0.0004538845125539609</v>
+        <v>0.0008596931735873946</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>493.967652</v>
       </c>
       <c r="I6">
-        <v>0.958522331209187</v>
+        <v>0.9398544320918915</v>
       </c>
       <c r="J6">
-        <v>0.9585223312091868</v>
+        <v>0.9398544320918915</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>98.946724</v>
+        <v>168.1098273333333</v>
       </c>
       <c r="N6">
-        <v>296.840172</v>
+        <v>504.329482</v>
       </c>
       <c r="O6">
-        <v>0.2098009692989996</v>
+        <v>0.2984182258032519</v>
       </c>
       <c r="P6">
-        <v>0.2098009692989996</v>
+        <v>0.298418225803252</v>
       </c>
       <c r="Q6">
-        <v>16292.16030912402</v>
+        <v>27680.27222865736</v>
       </c>
       <c r="R6">
-        <v>146629.4427821162</v>
+        <v>249122.4500579163</v>
       </c>
       <c r="S6">
-        <v>0.2010989141824241</v>
+        <v>0.2804696921381852</v>
       </c>
       <c r="T6">
-        <v>0.2010989141824241</v>
+        <v>0.2804696921381852</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>493.967652</v>
       </c>
       <c r="I7">
-        <v>0.958522331209187</v>
+        <v>0.9398544320918915</v>
       </c>
       <c r="J7">
-        <v>0.9585223312091868</v>
+        <v>0.9398544320918915</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>489.018707</v>
       </c>
       <c r="O7">
-        <v>0.345629090707923</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="P7">
-        <v>0.3456290907079231</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="Q7">
         <v>26839.93583120733</v>
@@ -883,10 +883,10 @@
         <v>241559.422480866</v>
       </c>
       <c r="S7">
-        <v>0.3312932017590699</v>
+        <v>0.2719550038165395</v>
       </c>
       <c r="T7">
-        <v>0.33129320175907</v>
+        <v>0.2719550038165395</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>493.967652</v>
       </c>
       <c r="I8">
-        <v>0.958522331209187</v>
+        <v>0.9398544320918915</v>
       </c>
       <c r="J8">
-        <v>0.9585223312091868</v>
+        <v>0.9398544320918915</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>144.2727966666667</v>
+        <v>165.99353</v>
       </c>
       <c r="N8">
-        <v>432.81839</v>
+        <v>497.98059</v>
       </c>
       <c r="O8">
-        <v>0.3059077790604178</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="P8">
-        <v>0.3059077790604179</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="Q8">
-        <v>23755.36487230225</v>
+        <v>27331.81142043052</v>
       </c>
       <c r="R8">
-        <v>213798.2838507203</v>
+        <v>245986.3027838747</v>
       </c>
       <c r="S8">
-        <v>0.2932194375200166</v>
+        <v>0.276938921385706</v>
       </c>
       <c r="T8">
-        <v>0.2932194375200166</v>
+        <v>0.276938921385706</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>493.967652</v>
       </c>
       <c r="I9">
-        <v>0.958522331209187</v>
+        <v>0.9398544320918915</v>
       </c>
       <c r="J9">
-        <v>0.9585223312091868</v>
+        <v>0.9398544320918915</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>65.39610666666668</v>
+        <v>66.22673433333334</v>
       </c>
       <c r="N9">
-        <v>196.18832</v>
+        <v>198.680203</v>
       </c>
       <c r="O9">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="P9">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="Q9">
-        <v>10767.85375335829</v>
+        <v>10904.62148608815</v>
       </c>
       <c r="R9">
-        <v>96910.68378022466</v>
+        <v>98141.59337479336</v>
       </c>
       <c r="S9">
-        <v>0.1329107777476762</v>
+        <v>0.1104908147514607</v>
       </c>
       <c r="T9">
-        <v>0.1329107777476762</v>
+        <v>0.1104908147514607</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.525024333333334</v>
+        <v>9.213772333333333</v>
       </c>
       <c r="H10">
-        <v>19.575073</v>
+        <v>27.641317</v>
       </c>
       <c r="I10">
-        <v>0.03798456139704876</v>
+        <v>0.05259213672418158</v>
       </c>
       <c r="J10">
-        <v>0.03798456139704876</v>
+        <v>0.05259213672418158</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>98.946724</v>
+        <v>168.1098273333333</v>
       </c>
       <c r="N10">
-        <v>296.840172</v>
+        <v>504.329482</v>
       </c>
       <c r="O10">
-        <v>0.2098009692989996</v>
+        <v>0.2984182258032519</v>
       </c>
       <c r="P10">
-        <v>0.2098009692989996</v>
+        <v>0.298418225803252</v>
       </c>
       <c r="Q10">
-        <v>645.6297818036173</v>
+        <v>1548.92567604531</v>
       </c>
       <c r="R10">
-        <v>5810.668036232556</v>
+        <v>13940.33108440779</v>
       </c>
       <c r="S10">
-        <v>0.007969197799498191</v>
+        <v>0.01569445213243232</v>
       </c>
       <c r="T10">
-        <v>0.007969197799498191</v>
+        <v>0.01569445213243232</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>6.525024333333334</v>
+        <v>9.213772333333333</v>
       </c>
       <c r="H11">
-        <v>19.575073</v>
+        <v>27.641317</v>
       </c>
       <c r="I11">
-        <v>0.03798456139704876</v>
+        <v>0.05259213672418158</v>
       </c>
       <c r="J11">
-        <v>0.03798456139704876</v>
+        <v>0.05259213672418158</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>489.018707</v>
       </c>
       <c r="O11">
-        <v>0.345629090707923</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="P11">
-        <v>0.3456290907079231</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="Q11">
-        <v>1063.619654210068</v>
+        <v>1501.902344346347</v>
       </c>
       <c r="R11">
-        <v>9572.576887890611</v>
+        <v>13517.12109911712</v>
       </c>
       <c r="S11">
-        <v>0.01312856941660124</v>
+        <v>0.01521798935576692</v>
       </c>
       <c r="T11">
-        <v>0.01312856941660124</v>
+        <v>0.01521798935576692</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>6.525024333333334</v>
+        <v>9.213772333333333</v>
       </c>
       <c r="H12">
-        <v>19.575073</v>
+        <v>27.641317</v>
       </c>
       <c r="I12">
-        <v>0.03798456139704876</v>
+        <v>0.05259213672418158</v>
       </c>
       <c r="J12">
-        <v>0.03798456139704876</v>
+        <v>0.05259213672418158</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>144.2727966666667</v>
+        <v>165.99353</v>
       </c>
       <c r="N12">
-        <v>432.81839</v>
+        <v>497.98059</v>
       </c>
       <c r="O12">
-        <v>0.3059077790604178</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="P12">
-        <v>0.3059077790604179</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="Q12">
-        <v>941.3835088880522</v>
+        <v>1529.426594226337</v>
       </c>
       <c r="R12">
-        <v>8472.45157999247</v>
+        <v>13764.83934803703</v>
       </c>
       <c r="S12">
-        <v>0.01161977281555527</v>
+        <v>0.01549687815521244</v>
       </c>
       <c r="T12">
-        <v>0.01161977281555527</v>
+        <v>0.01549687815521244</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>6.525024333333334</v>
+        <v>9.213772333333333</v>
       </c>
       <c r="H13">
-        <v>19.575073</v>
+        <v>27.641317</v>
       </c>
       <c r="I13">
-        <v>0.03798456139704876</v>
+        <v>0.05259213672418158</v>
       </c>
       <c r="J13">
-        <v>0.03798456139704876</v>
+        <v>0.05259213672418158</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>65.39610666666668</v>
+        <v>66.22673433333334</v>
       </c>
       <c r="N13">
-        <v>196.18832</v>
+        <v>198.680203</v>
       </c>
       <c r="O13">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="P13">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="Q13">
-        <v>426.7111873052623</v>
+        <v>610.1980525274835</v>
       </c>
       <c r="R13">
-        <v>3840.400685747361</v>
+        <v>5491.782472747352</v>
       </c>
       <c r="S13">
-        <v>0.005267021365394058</v>
+        <v>0.006182817080769901</v>
       </c>
       <c r="T13">
-        <v>0.00526702136539406</v>
+        <v>0.006182817080769901</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.03775666666666667</v>
+        <v>0.042174</v>
       </c>
       <c r="H14">
-        <v>0.11327</v>
+        <v>0.126522</v>
       </c>
       <c r="I14">
-        <v>0.0002197954137613542</v>
+        <v>0.0002407288452506406</v>
       </c>
       <c r="J14">
-        <v>0.0002197954137613542</v>
+        <v>0.0002407288452506406</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>98.946724</v>
+        <v>168.1098273333333</v>
       </c>
       <c r="N14">
-        <v>296.840172</v>
+        <v>504.329482</v>
       </c>
       <c r="O14">
-        <v>0.2098009692989996</v>
+        <v>0.2984182258032519</v>
       </c>
       <c r="P14">
-        <v>0.2098009692989996</v>
+        <v>0.298418225803252</v>
       </c>
       <c r="Q14">
-        <v>3.735898475826667</v>
+        <v>7.089863857955999</v>
       </c>
       <c r="R14">
-        <v>33.62308628244</v>
+        <v>63.808774721604</v>
       </c>
       <c r="S14">
-        <v>4.611329085460677E-05</v>
+        <v>7.183787489936176E-05</v>
       </c>
       <c r="T14">
-        <v>4.611329085460678E-05</v>
+        <v>7.183787489936178E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.03775666666666667</v>
+        <v>0.042174</v>
       </c>
       <c r="H15">
-        <v>0.11327</v>
+        <v>0.126522</v>
       </c>
       <c r="I15">
-        <v>0.0002197954137613542</v>
+        <v>0.0002407288452506406</v>
       </c>
       <c r="J15">
-        <v>0.0002197954137613542</v>
+        <v>0.0002407288452506406</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>489.018707</v>
       </c>
       <c r="O15">
-        <v>0.345629090707923</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="P15">
-        <v>0.3456290907079231</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="Q15">
-        <v>6.154572104654445</v>
+        <v>6.874624983005999</v>
       </c>
       <c r="R15">
-        <v>55.39114894189001</v>
+        <v>61.871624847054</v>
       </c>
       <c r="S15">
-        <v>7.596768900010855E-05</v>
+        <v>6.965697217937708E-05</v>
       </c>
       <c r="T15">
-        <v>7.596768900010857E-05</v>
+        <v>6.965697217937708E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.03775666666666667</v>
+        <v>0.042174</v>
       </c>
       <c r="H16">
-        <v>0.11327</v>
+        <v>0.126522</v>
       </c>
       <c r="I16">
-        <v>0.0002197954137613542</v>
+        <v>0.0002407288452506406</v>
       </c>
       <c r="J16">
-        <v>0.0002197954137613542</v>
+        <v>0.0002407288452506406</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>144.2727966666667</v>
+        <v>165.99353</v>
       </c>
       <c r="N16">
-        <v>432.81839</v>
+        <v>497.98059</v>
       </c>
       <c r="O16">
-        <v>0.3059077790604178</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="P16">
-        <v>0.3059077790604179</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="Q16">
-        <v>5.447259892811111</v>
+        <v>7.000611134219999</v>
       </c>
       <c r="R16">
-        <v>49.02533903530001</v>
+        <v>63.00550020798</v>
       </c>
       <c r="S16">
-        <v>6.723712687140145E-05</v>
+        <v>7.093352382427322E-05</v>
       </c>
       <c r="T16">
-        <v>6.723712687140147E-05</v>
+        <v>7.093352382427322E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.03775666666666667</v>
+        <v>0.042174</v>
       </c>
       <c r="H17">
-        <v>0.11327</v>
+        <v>0.126522</v>
       </c>
       <c r="I17">
-        <v>0.0002197954137613542</v>
+        <v>0.0002407288452506406</v>
       </c>
       <c r="J17">
-        <v>0.0002197954137613542</v>
+        <v>0.0002407288452506406</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>65.39610666666668</v>
+        <v>66.22673433333334</v>
       </c>
       <c r="N17">
-        <v>196.18832</v>
+        <v>198.680203</v>
       </c>
       <c r="O17">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="P17">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="Q17">
-        <v>2.469139000711112</v>
+        <v>2.793046293774</v>
       </c>
       <c r="R17">
-        <v>22.2222510064</v>
+        <v>25.137416643966</v>
       </c>
       <c r="S17">
-        <v>3.047730703523737E-05</v>
+        <v>2.830047434762857E-05</v>
       </c>
       <c r="T17">
-        <v>3.047730703523737E-05</v>
+        <v>2.830047434762857E-05</v>
       </c>
     </row>
   </sheetData>
